--- a/3d printing/Цена и печать 3d моделей.xlsx
+++ b/3d printing/Цена и печать 3d моделей.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\3d printing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F875FEFF-C661-4E02-9F92-F00C70380F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EF0160-9F67-4BB8-B68D-3B274E7DBCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Сопло</t>
   </si>
@@ -55,6 +55,24 @@
   </si>
   <si>
     <t>6х6+3x1</t>
+  </si>
+  <si>
+    <t>цена за кг</t>
+  </si>
+  <si>
+    <t>глазки</t>
+  </si>
+  <si>
+    <t>упаковка</t>
+  </si>
+  <si>
+    <t>себестоимость</t>
+  </si>
+  <si>
+    <t>коробка</t>
+  </si>
+  <si>
+    <t>цена за модель</t>
   </si>
 </sst>
 </file>
@@ -372,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J2"/>
+  <dimension ref="B1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,9 +405,12 @@
     <col min="6" max="6" width="23.28515625" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>7</v>
       </c>
@@ -411,8 +432,26 @@
       <c r="J1" t="s">
         <v>5</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -440,6 +479,26 @@
       </c>
       <c r="J2">
         <v>7</v>
+      </c>
+      <c r="K2">
+        <v>1000</v>
+      </c>
+      <c r="L2">
+        <f>K2/ROUNDDOWN(H2,0)</f>
+        <v>25.641025641025642</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>8</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <f>SUM(L2:O2)</f>
+        <v>42.641025641025642</v>
       </c>
     </row>
   </sheetData>

--- a/3d printing/Цена и печать 3d моделей.xlsx
+++ b/3d printing/Цена и печать 3d моделей.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\3d printing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EF0160-9F67-4BB8-B68D-3B274E7DBCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252F0452-525A-413C-99E6-4461A17F5A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Сопло</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>цена за модель</t>
+  </si>
+  <si>
+    <t>количество x plates</t>
   </si>
 </sst>
 </file>
@@ -393,7 +396,7 @@
   <dimension ref="B1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,7 +407,9 @@
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" customWidth="1"/>
     <col min="12" max="12" width="22.28515625" customWidth="1"/>
     <col min="16" max="16" width="10.28515625" customWidth="1"/>
@@ -429,6 +434,9 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
       <c r="J1" t="s">
         <v>5</v>
       </c>

--- a/3d printing/Цена и печать 3d моделей.xlsx
+++ b/3d printing/Цена и печать 3d моделей.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\3d printing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252F0452-525A-413C-99E6-4461A17F5A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EC163C-5104-4E80-9B2B-2028BED4C16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Сопло</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>количество x plates</t>
+  </si>
+  <si>
+    <t>kitty</t>
+  </si>
+  <si>
+    <t>6x10+</t>
   </si>
 </sst>
 </file>
@@ -393,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:P2"/>
+  <dimension ref="B1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
@@ -509,6 +515,21 @@
         <v>42.641025641025642</v>
       </c>
     </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="H3">
+        <f>1000/F3</f>
+        <v>61.576354679802961</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="257" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
